--- a/Texts/Город Сокровищ/Город/Кафе Спинды/Кафе Спинды (Универсальные файлы).xlsx
+++ b/Texts/Город Сокровищ/Город/Кафе Спинды/Кафе Спинды (Универсальные файлы).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="613">
   <si>
     <t>Раздел</t>
   </si>
@@ -1825,6 +1825,423 @@
   </si>
   <si>
     <t>Ïáíåî</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/enter05.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you try asking [CS:N]Wynaut[CR]\nover there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Может, лучше поговорить с\nтем [CS:N]Вайнотом[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íïçåó, ìôœšå ðïãïâïñéóû ò\nóåí [CS:N]Âàêîïóïí[CR]?</t>
+  </si>
+  <si>
+    <t>Вот так!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прямо сюда, так?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñÿíï òýäà, óàë?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/P01P04A/s30a0601.ssb </t>
+  </si>
+  <si>
+    <t>Призы Вайнота</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, please select a color card.\nRed, Blue, or Yellow?</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, Red then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Right! Red!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is it a win? Is it not?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .........</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is that so? That\'s not too bad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, here\'s your\nconsolation prize.</t>
+  </si>
+  <si>
+    <t>[CN][hero] received the\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Draw another [CS:I]Prize Ticket[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You can draw once for\neach Ticket!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select which Ticket to use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Draw a [CS:I]Prize Ticket[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select the Ticket you\'d like\nto use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Draw a [CS:I]Silver Ticket[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Draw a [CS:I]Gold Ticket[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Draw a [CS:I]Prism Ticket[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You want to cancel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sorry to say that if you don\'t\nhave any [CS:I]Prize Tickets[CR], you can\'t participate in\nthe drawing…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh? Your Bag\'s full?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, I\'ll just send this to your\nstorage, then.</t>
+  </si>
+  <si>
+    <t>[CN]The [s_item:0] was\n[CN]sent to storage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So is it a win or not?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wow! That\'s wonderful!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s so great!\nWhy not take your prize?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh...wait. Don\'t tell me...[K]\nIs it a big win...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .........[K]\nDon\'t tell me... [K]It\'s a loss, right?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey...\nWhy not calm down...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sorry to have gotten your hopes\nup.[K] Why not take this consolation prize?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, yeaaaaah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I must congratulate you.[K]\nWhy not? Here is your big-win prize!</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, Blue then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Right! Blue!</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK, Yellow then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Right! Yellow!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s so exciting! You never know\nwhat you might find! \nEnter the Big Treasure [CS:I]Prize Ticket[CR] drawing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хорошо. Пожалуйста, выбери\nцветную карту. Красная, Синяя или Жёлтая?</t>
+  </si>
+  <si>
+    <t>Красная</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хорошо, значит Красная.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так! Красная!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Есть выигрыш? Или нет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё так!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Серьёзно? Ну, не так уж и плохо.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что-ж, вот твой утешительный\nприз.</t>
+  </si>
+  <si>
+    <t>[CN][hero] получает\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поучавствуешь в розыгрыше за\nдругой [CS:I]Призовой Билет[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> За каждый Билет можно принять\nучастие в одном розыгрыше!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выбери свой Билет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поучавствуешь в розыгрыше за\n[CS:I]Призовой Билет[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разыграть [CS:I]Серебрянный Билет[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разыграть [CS:I]Золотой Билет[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разыграть [CS:I]Призматический\nБилет[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хочешь отказаться?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне жаль это говорить, но если\nу тебя нет Призовых Билетов, то ты не\nсможешь поучавствовать в розыгрыше...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Приходи еще!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> А? У тебя Сумка забита?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ничего, я просто отправлю\nэто в твоё хранилище.</t>
+  </si>
+  <si>
+    <t>[CN]Предмет [s_item:0]\n[CN]отправлен в хранилище.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Есть выигрыш или нет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ого! Это чудесно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это очень здорово! Почему бы\nтебе не забрать свой приз?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что...погоди. Не говори...[K]\nЭто крупный выигрыш?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .........[K]\nТолько не говори мне... [K]Это проигрыш, да?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Постой...\nПочему бы не успокоиться?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прости, что оправдали твоих\nнадежд.[K] Почему бы не взять утешительный\nприз?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, даааааааа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хочу тебя поздравить.[K]\nПочему бы и нет? Вот твой крупный\nвыигрыш!</t>
+  </si>
+  <si>
+    <t>Синяя</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хорошо, значит Синяя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так! Синяя!</t>
+  </si>
+  <si>
+    <t>Жёлтая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хорошо, значит Жёлтая.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так! Жёлтая!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это так раззадоривает! Кто\nзнает, что можно получить! Поучавствуешь\nв розыгрыше Крупного Выигрыша за [CS:I]Билет[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïñïšï. Ðïçàìôêòóà, âúáåñé\nøâåóîôý ëàñóô. Ëñàòîàÿ, Òéîÿÿ éìé Çæìóàÿ?</t>
+  </si>
+  <si>
+    <t>Ëñàòîàÿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïñïšï, èîàœéó Ëñàòîàÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë! Ëñàòîàÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòóû âúéãñúš? Éìé îåó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ óàë!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òåñûæèîï? Îô, îå óàë ôç é ðìïöï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï-ç, âïó óâïê ôóåšéóåìûîúê\nðñéè.</t>
+  </si>
+  <si>
+    <t>[CN][hero] ðïìôœàåó\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïôœàâòóâôåšû â ñïèúãñúšå èà\näñôãïê [CS:I]Ðñéèïâïê Áéìåó[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èà ëàçäúê Áéìåó íïçîï ðñéîÿóû\nôœàòóéå â ïäîïí ñïèúãñúšå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúáåñé òâïê Áéìåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïôœàâòóâôåšû â ñïèúãñúšå èà\n[CS:I]Ðñéèïâïê Áéìåó[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèúãñàóû [CS:I]Òåñåáñÿîîúê Áéìåó[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèúãñàóû [CS:I]Èïìïóïê Áéìåó[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèúãñàóû [CS:I]Ðñéèíàóéœåòëéê\nÁéìåó[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïœåšû ïóëàèàóûòÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå çàìû üóï ãïâïñéóû, îï åòìé\nô óåáÿ îåó Ðñéèïâúö Áéìåóïâ, óï óú îå\nòíïçåšû ðïôœàâòóâïâàóû â ñïèúãñúšå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéöïäé åþå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> À? Ô óåáÿ Òôíëà èàáéóà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îéœåãï, ÿ ðñïòóï ïóðñàâìý\nüóï â óâïæ öñàîéìéþå.</t>
+  </si>
+  <si>
+    <t>[CN]Ðñåäíåó [s_item:0]\n[CN]ïóðñàâìåî â öñàîéìéþå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòóû âúéãñúš éìé îåó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïãï! Üóï œôäåòîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ïœåîû èäïñïâï! Ðïœåíô áú\nóåáå îå èàáñàóû òâïê ðñéè?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï...ðïãïäé. Îå ãïâïñé...[K]\nÜóï ëñôðîúê âúéãñúš?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .........[K]\nÓïìûëï îå ãïâïñé íîå... [K]Üóï ðñïéãñúš, äà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòóïê...\nÐïœåíô áú îå ôòðïëïéóûòÿ?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïòóé, œóï ïðñàâäàìé óâïéö\nîàäåçä.[K] Ðïœåíô áú îå âèÿóû ôóåšéóåìûîúê\nðñéè?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, äàààààààà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïœô óåáÿ ðïèäñàâéóû.[K]\nÐïœåíô áú é îåó? Âïó óâïê ëñôðîúê\nâúéãñúš!</t>
+  </si>
+  <si>
+    <t>Òéîÿÿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïñïšï, èîàœéó Òéîÿÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë! Òéîÿÿ!</t>
+  </si>
+  <si>
+    <t>Çæìóàÿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïñïšï, èîàœéó Çæìóàÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë! Çæìóàÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óàë ñàèèàäïñéâàåó! Ëóï\nèîàåó, œóï íïçîï ðïìôœéóû! Ðïôœàâòóâôåšû\nâ ñïèúãñúšå Ëñôðîïãï Âúéãñúšà èà [CS:I]Áéìåó[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåó</t>
+  </si>
+  <si>
+    <t>[CS:I]Prize Ticket[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Silver Ticket[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Gold Ticket[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Prism Ticket[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Призовой Билет[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Серебрянный Билет[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Золотой Билет[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Призматический Билет[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Ðñéèïâïê Áéìåó[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Òåñåáñÿîîúê Áéìåó[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Èïìïóïê Áéìåó[CR]</t>
+  </si>
+  <si>
+    <t>[CS:I]Ðñéèíàóéœåòëéê Áéìåó[CR]</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2072,6 +2489,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2354,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5208,7 +5637,1420 @@
         <v>471</v>
       </c>
     </row>
+    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A179" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="B179" s="23">
+        <v>48</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E179" s="25" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="12"/>
+      <c r="B180" s="9">
+        <v>52</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E180" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="12"/>
+      <c r="B181" s="9">
+        <v>56</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="12"/>
+      <c r="B182" s="9">
+        <v>83</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="12"/>
+      <c r="B183" s="9">
+        <v>114</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="12"/>
+      <c r="B184" s="9">
+        <v>142</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="E184" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="12"/>
+      <c r="B185" s="9">
+        <v>157</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="18"/>
+      <c r="B186" s="19">
+        <v>187</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="E186" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="B187" s="23">
+        <v>21</v>
+      </c>
+      <c r="C187" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="D187" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="E187" s="25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B188" s="9">
+        <v>25</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="12"/>
+      <c r="B189" s="9">
+        <v>30</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="12"/>
+      <c r="B190" s="9">
+        <v>41</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="E190" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="12"/>
+      <c r="B191" s="9">
+        <v>87</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="12"/>
+      <c r="B192" s="9">
+        <v>94</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="12"/>
+      <c r="B193" s="9">
+        <v>113</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="12"/>
+      <c r="B194" s="9">
+        <v>119</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="E194" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="12"/>
+      <c r="B195" s="9">
+        <v>131</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="12"/>
+      <c r="B196" s="9">
+        <v>142</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A197" s="12"/>
+      <c r="B197" s="9">
+        <v>159</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="12"/>
+      <c r="B198" s="9">
+        <v>163</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A199" s="12"/>
+      <c r="B199" s="9">
+        <v>172</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="12"/>
+      <c r="B200" s="9">
+        <v>186</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E200" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A201" s="12"/>
+      <c r="B201" s="9">
+        <v>194</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="12"/>
+      <c r="B202" s="9">
+        <v>199</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="12"/>
+      <c r="B203" s="9">
+        <v>222</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D203" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="12"/>
+      <c r="B204" s="9">
+        <v>227</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D204" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="12"/>
+      <c r="B205" s="9">
+        <v>238</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D205" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="12"/>
+      <c r="B206" s="9">
+        <v>246</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="12"/>
+      <c r="B207" s="9">
+        <v>254</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="D207" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="12"/>
+      <c r="B208" s="9">
+        <v>259</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="12"/>
+      <c r="B209" s="9">
+        <v>264</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="12"/>
+      <c r="B210" s="9">
+        <v>272</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E210" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="12"/>
+      <c r="B211" s="9">
+        <v>280</v>
+      </c>
+      <c r="C211" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D211" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="12"/>
+      <c r="B212" s="9">
+        <v>287</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D212" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="12"/>
+      <c r="B213" s="9">
+        <v>297</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="12"/>
+      <c r="B214" s="9">
+        <v>304</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E214" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="12"/>
+      <c r="B215" s="9">
+        <v>314</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D215" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E215" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="12"/>
+      <c r="B216" s="9">
+        <v>321</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D216" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E216" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="12"/>
+      <c r="B217" s="9">
+        <v>329</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D217" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="12"/>
+      <c r="B218" s="9">
+        <v>336</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E218" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="12"/>
+      <c r="B219" s="9">
+        <v>342</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D219" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E219" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="12"/>
+      <c r="B220" s="9">
+        <v>349</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="12"/>
+      <c r="B221" s="9">
+        <v>357</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D221" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="12"/>
+      <c r="B222" s="9">
+        <v>364</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E222" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="12"/>
+      <c r="B223" s="9">
+        <v>374</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E223" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="12"/>
+      <c r="B224" s="9">
+        <v>381</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D224" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E224" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="12"/>
+      <c r="B225" s="9">
+        <v>389</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E225" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="12"/>
+      <c r="B226" s="9">
+        <v>396</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E226" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="12"/>
+      <c r="B227" s="9">
+        <v>402</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D227" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E227" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="12"/>
+      <c r="B228" s="9">
+        <v>409</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D228" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E228" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="12"/>
+      <c r="B229" s="9">
+        <v>417</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D229" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E229" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="12"/>
+      <c r="B230" s="9">
+        <v>424</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D230" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E230" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="12"/>
+      <c r="B231" s="9">
+        <v>430</v>
+      </c>
+      <c r="C231" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E231" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="12"/>
+      <c r="B232" s="9">
+        <v>462</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D232" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E232" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="12"/>
+      <c r="B233" s="9">
+        <v>472</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D233" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E233" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="12"/>
+      <c r="B234" s="9">
+        <v>489</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E234" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="12"/>
+      <c r="B235" s="9">
+        <v>497</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E235" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="12"/>
+      <c r="B236" s="9">
+        <v>525</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E236" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="12"/>
+      <c r="B237" s="9">
+        <v>531</v>
+      </c>
+      <c r="C237" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E237" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A238" s="12"/>
+      <c r="B238" s="9">
+        <v>599</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="12"/>
+      <c r="B239" s="9">
+        <v>612</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="12"/>
+      <c r="B240" s="9">
+        <v>616</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="12"/>
+      <c r="B241" s="9">
+        <v>633</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="12"/>
+      <c r="B242" s="9">
+        <v>636</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="12"/>
+      <c r="B243" s="9">
+        <v>640</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="12"/>
+      <c r="B244" s="9">
+        <v>683</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="12"/>
+      <c r="B245" s="9">
+        <v>701</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="12"/>
+      <c r="B246" s="9">
+        <v>717</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A247" s="12"/>
+      <c r="B247" s="9">
+        <v>732</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="12"/>
+      <c r="B248" s="9">
+        <v>743</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="12"/>
+      <c r="B249" s="9">
+        <v>792</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="12"/>
+      <c r="B250" s="9">
+        <v>854</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="12"/>
+      <c r="B251" s="9">
+        <v>859</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="E251" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="12"/>
+      <c r="B252" s="9">
+        <v>875</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="E252" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="12"/>
+      <c r="B253" s="9">
+        <v>903</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A254" s="12"/>
+      <c r="B254" s="9">
+        <v>940</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="12"/>
+      <c r="B255" s="9">
+        <v>951</v>
+      </c>
+      <c r="C255" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="12"/>
+      <c r="B256" s="9">
+        <v>1023</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="12"/>
+      <c r="B257" s="9">
+        <v>1193</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A258" s="12"/>
+      <c r="B258" s="9">
+        <v>1731</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D258" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="12"/>
+      <c r="B259" s="9">
+        <v>1742</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="12"/>
+      <c r="B260" s="9">
+        <v>1868</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="12"/>
+      <c r="B261" s="9">
+        <v>1872</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="12"/>
+      <c r="B262" s="9">
+        <v>1883</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="12"/>
+      <c r="B263" s="9">
+        <v>1889</v>
+      </c>
+      <c r="C263" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="12"/>
+      <c r="B264" s="9">
+        <v>1893</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="12"/>
+      <c r="B265" s="9">
+        <v>1904</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D265" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="12"/>
+      <c r="B266" s="9">
+        <v>1927</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D266" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="E266" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="12"/>
+      <c r="B267" s="9">
+        <v>1931</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D267" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="E267" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="18"/>
+      <c r="B268" s="19">
+        <v>1935</v>
+      </c>
+      <c r="C268" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D268" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="E268" s="21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B269" s="4">
+        <v>602</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B270" s="4">
+        <v>603</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B271" s="4">
+        <v>604</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B272" s="4">
+        <v>605</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Texts/Город Сокровищ/Город/Кафе Спинды/Кафе Спинды (Универсальные файлы).xlsx
+++ b/Texts/Город Сокровищ/Город/Кафе Спинды/Кафе Спинды (Универсальные файлы).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="652">
   <si>
     <t>Раздел</t>
   </si>
@@ -2052,9 +2052,6 @@
     <t xml:space="preserve"> Постой...\nПочему бы не успокоиться?..</t>
   </si>
   <si>
-    <t xml:space="preserve"> Прости, что оправдали твоих\nнадежд.[K] Почему бы не взять утешительный\nприз?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> О, даааааааа!</t>
   </si>
   <si>
@@ -2172,9 +2169,6 @@
     <t xml:space="preserve"> Ðïòóïê...\nÐïœåíô áú îå ôòðïëïéóûòÿ?..</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ðñïòóé, œóï ïðñàâäàìé óâïéö\nîàäåçä.[K] Ðïœåíô áú îå âèÿóû ôóåšéóåìûîúê\nðñéè?</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ï, äàààààààà!</t>
   </si>
   <si>
@@ -2242,6 +2236,129 @@
   </si>
   <si>
     <t>[CS:I]Ðñéèíàóéœåòëéê Áéìåó[CR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прости, что не оправдали твоих\nнадежд.[K] Почему бы не взять утешительный\nприз?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïòóé, œóï îå ïðñàâäàìé óâïéö\nîàäåçä.[K] Ðïœåíô áú îå âèÿóû ôóåšéóåìûîúê\nðñéè?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Did you hear the happy news,\nwhy not?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thanks to everyone\'s recycling\nefforts, Project P recently made a\nnew discovery!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This time, treasure was discovered, so...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We're offering a higher grade of recycled items!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please keep recycling! The more recycling, the better!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы уже слышали хорошие вести,\nнет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Благодаря всеобщим усилиям по\nпереработке ненужных вещей, Проект П\nсовершил новое открытие!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На этот раз, было найдено\nсокровище, поэтому...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы предлагаем переработанные\nпредметы более высокого качества!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, продолжайте перерабатывать\nвещи! Чем больше, тем лучше!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ôçå òìúšàìé öïñïšéå âåòóé,\nîåó?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áìàãïäàñÿ âòåïáþéí ôòéìéÿí ðï\nðåñåñàáïóëå îåîôçîúö âåþåê, Ðñïåëó Ð\nòïâåñšéì îïâïå ïóëñúóéå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà üóïó ñàè, áúìï îàêäåîï\nòïëñïâéþå, ðïüóïíô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðñåäìàãàåí ðåñåñàáïóàîîúå\nðñåäíåóú áïìåå âúòïëïãï ëàœåòóâà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, ðñïäïìçàêóå ðåñåñàáàóúâàóû\nâåþé! Œåí áïìûšå, óåí ìôœšå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This time, a new unexplored\narea was discovered!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll mark it on your map for you!</t>
+  </si>
+  <si>
+    <t>[CN]You can now go to\n[CN][CS:P]Landslide Cave[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please keep recycling!</t>
+  </si>
+  <si>
+    <t>[CN]You can now go to\n[CN]the [CS:P]Tiny Meadow[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]You can now go to\n[CN][CS:P]Oran Forest[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]You can now go to\n[CN][CS:P]Lake Afar[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]You can now go to\n[CN][CS:P]Zero Isle Center[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На этот раз, мы обнаружили\nновую неизведанную местность!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я отмечу её на вашей карте!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, продолжайте перерабатывать\nвещи!</t>
+  </si>
+  <si>
+    <t>[CN]Теперь вы можете отправиться\n[CN]в [CS:P]Пещеру Обвалов[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Теперь вы можете отправиться\n[CN]на [CS:P]Крошечный Луг[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Теперь вы можете отправиться\n[CN]в [CS:P]Лес Пельси[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Теперь вы можете отправиться\n[CN]к [CS:P]Далёкому Озеру[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Теперь вы можете отправиться\n[CN]в [CS:P]Центр Нуль-Острова[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà üóïó ñàè, íú ïáîàñôçéìé\nîïâôý îåéèâåäàîîôý íåòóîïòóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïóíåœô åæ îà âàšåê ëàñóå!</t>
+  </si>
+  <si>
+    <t>[CN]Óåðåñû âú íïçåóå ïóðñàâéóûòÿ\n[CN]â [CS:P]Ðåþåñô Ïáâàìïâ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, ðñïäïìçàêóå ðåñåñàáàóúâàóû\nâåþé!</t>
+  </si>
+  <si>
+    <t>[CN]Óåðåñû âú íïçåóå ïóðñàâéóûòÿ\n[CN]îà [CS:P]Ëñïšåœîúê Ìôã[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Óåðåñû âú íïçåóå ïóðñàâéóûòÿ\n[CN]â [CS:P]Ìåò Ðåìûòé[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Óåðåñû âú íïçåóå ïóðñàâéóûòÿ\n[CN]ë [CS:P]Äàìæëïíô Ïèåñô[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Óåðåñû âú íïçåóå ïóðñàâéóûòÿ\n[CN]â [CS:P]Øåîóñ Îôìû-Ïòóñïâà[CR]!</t>
   </si>
 </sst>
 </file>
@@ -2783,10 +2900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="C273" sqref="C273"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C276" sqref="C276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5773,7 +5890,7 @@
         <v>521</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -5790,7 +5907,7 @@
         <v>522</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -5805,7 +5922,7 @@
         <v>523</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -5820,7 +5937,7 @@
         <v>524</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -5835,7 +5952,7 @@
         <v>525</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -5865,7 +5982,7 @@
         <v>526</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -5880,7 +5997,7 @@
         <v>527</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -5895,7 +6012,7 @@
         <v>528</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -5910,7 +6027,7 @@
         <v>529</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5925,7 +6042,7 @@
         <v>530</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -5955,7 +6072,7 @@
         <v>531</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5970,7 +6087,7 @@
         <v>532</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5985,7 +6102,7 @@
         <v>533</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -6030,7 +6147,7 @@
         <v>532</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -6045,7 +6162,7 @@
         <v>534</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -6060,7 +6177,7 @@
         <v>535</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -6075,7 +6192,7 @@
         <v>536</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -6105,7 +6222,7 @@
         <v>537</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -6120,7 +6237,7 @@
         <v>532</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -6150,7 +6267,7 @@
         <v>532</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -6180,7 +6297,7 @@
         <v>532</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -6210,7 +6327,7 @@
         <v>532</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -6240,7 +6357,7 @@
         <v>532</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -6270,7 +6387,7 @@
         <v>532</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -6300,7 +6417,7 @@
         <v>532</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -6330,7 +6447,7 @@
         <v>532</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -6360,7 +6477,7 @@
         <v>532</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -6390,7 +6507,7 @@
         <v>532</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -6420,7 +6537,7 @@
         <v>532</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -6450,7 +6567,7 @@
         <v>532</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -6480,7 +6597,7 @@
         <v>532</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -6510,7 +6627,7 @@
         <v>532</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -6540,7 +6657,7 @@
         <v>538</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -6570,7 +6687,7 @@
         <v>539</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -6585,7 +6702,7 @@
         <v>540</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -6600,7 +6717,7 @@
         <v>541</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -6615,7 +6732,7 @@
         <v>542</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -6630,7 +6747,7 @@
         <v>543</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -6645,7 +6762,7 @@
         <v>526</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -6660,7 +6777,7 @@
         <v>544</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6675,7 +6792,7 @@
         <v>545</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -6690,7 +6807,7 @@
         <v>529</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -6705,7 +6822,7 @@
         <v>546</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -6735,7 +6852,7 @@
         <v>547</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -6750,7 +6867,7 @@
         <v>526</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -6765,7 +6882,7 @@
         <v>548</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6777,10 +6894,10 @@
         <v>511</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -6795,7 +6912,7 @@
         <v>529</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -6810,7 +6927,7 @@
         <v>526</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -6822,10 +6939,10 @@
         <v>512</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6837,10 +6954,10 @@
         <v>513</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -6855,7 +6972,7 @@
         <v>529</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -6867,10 +6984,10 @@
         <v>514</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -6882,10 +6999,10 @@
         <v>515</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -6897,10 +7014,10 @@
         <v>516</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -6912,10 +7029,10 @@
         <v>517</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -6927,10 +7044,10 @@
         <v>518</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -6942,10 +7059,10 @@
         <v>519</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -6957,10 +7074,10 @@
         <v>520</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -6972,10 +7089,10 @@
         <v>106</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6987,10 +7104,10 @@
         <v>107</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -6998,13 +7115,13 @@
         <v>602</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -7012,13 +7129,13 @@
         <v>603</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -7026,27 +7143,239 @@
         <v>604</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B272" s="4">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="19"/>
+      <c r="B272" s="19">
         <v>605</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="D272" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="E272" s="5" t="s">
-        <v>612</v>
+      <c r="C272" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="D272" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="E272" s="20" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B273" s="4">
+        <v>17</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B274" s="4">
+        <v>25</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B275" s="4">
+        <v>84</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B276" s="4">
+        <v>87</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="19"/>
+      <c r="B277" s="19">
+        <v>95</v>
+      </c>
+      <c r="C277" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="D277" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B278" s="4">
+        <v>17</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B279" s="4">
+        <v>25</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B280" s="4">
+        <v>84</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B281" s="4">
+        <v>87</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E281" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B282" s="4">
+        <v>104</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B283" s="4">
+        <v>115</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B284" s="4">
+        <v>129</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B285" s="4">
+        <v>145</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B286" s="4">
+        <v>161</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B287" s="4">
+        <v>177</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Город/Кафе Спинды/Кафе Спинды (Универсальные файлы).xlsx
+++ b/Texts/Город Сокровищ/Город/Кафе Спинды/Кафе Спинды (Универсальные файлы).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="851">
   <si>
     <t>Раздел</t>
   </si>
@@ -416,16 +416,6 @@
     <t xml:space="preserve"> [name:0] of [team]![C]
  [name:0] of [team]![C]
  [hero] is looking for you.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [name:0] из [team]![C]
- [name:0] из [team]![C]
- Вас ожидает [hero].</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [name:0] éè [team]![C]
- [name:0] éè [team]![C]
- Âàò ïçéäàåó [hero].</t>
   </si>
   <si>
     <t>[item:0] Mix</t>
@@ -2360,12 +2350,621 @@
   <si>
     <t>[CN]Óåðåñû âú íïçåóå ïóðñàâéóûòÿ\n[CN]â [CS:P]Øåîóñ Îôìû-Ïòóñïâà[CR]!</t>
   </si>
+  <si>
+    <t>SCRIPT/P01P04A/enter06.ssb</t>
+  </si>
+  <si>
+    <t>Вручение ответов на Небесные Подарки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There is a package here for\nTeam [team:]!</t>
+  </si>
+  <si>
+    <t>[CN][hero] received the package!</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN]the Guildmaster!</t>
+  </si>
+  <si>
+    <t>[CN]There\'s a message too.</t>
+  </si>
+  <si>
+    <t>[CN]Thank you for\n[CN]the [CS:I]Sky Gift[CR]!</t>
+  </si>
+  <si>
+    <t>Гильдмастер</t>
+  </si>
+  <si>
+    <t>[CN]I am so happy!\n[CN]Even though it wasn\'t a Perfect Apple!</t>
+  </si>
+  <si>
+    <t>[CN]Gifts are just so wonderful!\n[CN]I\'m glad we\'re such friendly friends!</t>
+  </si>
+  <si>
+    <t>[CN]Please accept this token of thanks.\n--[CS:N]Wigglytuff[CR]</t>
+  </si>
+  <si>
+    <t>[CN][hero] gently\n[CN]opens the lid…</t>
+  </si>
+  <si>
+    <t>[CN]Inside was the\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t>[CN]A warm and fuzzy feeling falls over you…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You got more.</t>
+  </si>
+  <si>
+    <t>Чатот</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Chatot[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Thanks for the [CS:I]Sky Gift[CR]! ♪</t>
+  </si>
+  <si>
+    <t>[CN]I was honestly surprised to\n[CN]see a gift from you. ♪</t>
+  </si>
+  <si>
+    <t>[CN]I think it\'s important to show\n[CN]your feelings of gratitude. ♪</t>
+  </si>
+  <si>
+    <t>[CN]This is my thank-you. ♪\n--[CS:N]Chatot[CR]</t>
+  </si>
+  <si>
+    <t>[CN][hero]\n[CN]gently opens the lid…</t>
+  </si>
+  <si>
+    <t>Диглетт</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Diglett[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Thank you so very much for the [CS:I]Sky Gift[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]It was an unexpected surprise.\n[CN]It made me so very happy!</t>
+  </si>
+  <si>
+    <t>[CN]Please accept this thank-you.\n--[CS:N]Diglett[CR]</t>
+  </si>
+  <si>
+    <t>Дагтрио</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Dugtrio[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Thank you so much for the [CS:I]Sky Gift[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]You wouldn\'t believe how happy we are to get a\n[CN]gift! We even shouted the feeling to the sea!</t>
+  </si>
+  <si>
+    <t>[CN]Here\'s a thanks!\n--[CS:N]Dugtrio[CR]</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Sunflora[CR]!</t>
+  </si>
+  <si>
+    <t>Санфлора</t>
+  </si>
+  <si>
+    <t>[CN]Oh my gosh!\n[CN]Thank you so very much for the [CS:I]Sky Gift[CR]! ♪</t>
+  </si>
+  <si>
+    <t>[CN]I was so happy to receive\n[CN]a gift that I fainted!</t>
+  </si>
+  <si>
+    <t>[CN]Thanks again!\n--[CS:N]Sunflora[CR]</t>
+  </si>
+  <si>
+    <t>Лаудред</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Loudred[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]HA HA HA! Thanks MUCH for THE [CS:I]Sky GIFT[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]I\'ll TREASURE this GIFT!!</t>
+  </si>
+  <si>
+    <t>[CN]This is my THANKS!\n[CN]PLEASE take IT!\n--[CS:N]Loudred[CR]</t>
+  </si>
+  <si>
+    <t>Корфиш</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Corphish[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Hey, hey, hey!\n[CN]Thanks for the [CS:I]Sky Gift[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]I was moved!\n[CN]I love getting presents!</t>
+  </si>
+  <si>
+    <t>[CN]This is in thanks.\n--[CS:N]Corphish[CR]</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Chimecho[CR]!</t>
+  </si>
+  <si>
+    <t>Чаймеко</t>
+  </si>
+  <si>
+    <t>[CN]Thank you for the [CS:I]Sky Gift[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]I was so happy all day long\n[CN]after receiving your present! ♪</t>
+  </si>
+  <si>
+    <t>[CN]Gifts from the heart are the best gifts of all!</t>
+  </si>
+  <si>
+    <t>[CN]This is my heartfelt thank-you.\n--[CS:N]Chimecho[CR]</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Bidoof[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Yup yup! Thanks much for the [CS:I]Sky Gift[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]I sure am happy to work with\n[CN]you all in the guild,\n[CN][hero] and [partner].</t>
+  </si>
+  <si>
+    <t>[CN]It\'s not much, but I hope you\'ll like this thanks.\n--[CS:N]Bidoof[CR]</t>
+  </si>
+  <si>
+    <t>Бидуф</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Croagunk[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Meh-heh...\n[CN]Meh-heh-heh!</t>
+  </si>
+  <si>
+    <t>[CN]Thanks for the [CS:I]Sky Gift[CR]. Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t>[CN]Meh-heh-heh...\n[CN]Well done, I have to admit.</t>
+  </si>
+  <si>
+    <t>[CN]Here\'s a thanks.\n[CN]Meh-heh-heh...\n--[CS:N]Croagunk[CR]</t>
+  </si>
+  <si>
+    <t>Кроганк</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][partner]!</t>
+  </si>
+  <si>
+    <t>[CN]Thanks so much for the [CS:I]Sky Gift[CR]!</t>
+  </si>
+  <si>
+    <t>Спутник/Спутница</t>
+  </si>
+  <si>
+    <t>[CN]I\'ll be sure to take good care of it,\n[CN]since it\'s from you, [hero].</t>
+  </si>
+  <si>
+    <t>[CN]Here\'s a token of my appreciation.\n[CN]Let\'s keep on working together!\n--[partner]</t>
+  </si>
+  <si>
+    <t>[CN]It\'s a gift from\n[CN][CS:N]Happiny[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Thank you for giving me that\n[CN]item the other day.</t>
+  </si>
+  <si>
+    <t>[CN]If I didn\'t get that item,\n[CN]I could have ended up being lost.</t>
+  </si>
+  <si>
+    <t>[CN]It\'s not much, but please accept this\n[CN]token of my appreciation.\n--[CS:N]Happiny[CR]</t>
+  </si>
+  <si>
+    <t>Хаппини</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huh?\nYou\'ve got too many items?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, I\'ll hold on to this for you\nfor a while, then.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Команде [team:] пришла\nпосылка!</t>
+  </si>
+  <si>
+    <t>[CN][hero] получает посылку!</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN]Гильдмастера!</t>
+  </si>
+  <si>
+    <t>[CN]К подарку приложено письмо.</t>
+  </si>
+  <si>
+    <t>[CN]Спасибо за [CS:I]Небесный Подарок[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Я очень ему рад!\n[CN]Пусть это и не Идеальное Яблоко!</t>
+  </si>
+  <si>
+    <t>[CN]Подарки это здорово!\n[CN]Я рад, что мы такие дружные друзья!</t>
+  </si>
+  <si>
+    <t>[CN]Прошу, примите это в знак благодарности.\n--[CS:N]Виглитафф[CR]</t>
+  </si>
+  <si>
+    <t>[CN][hero] нежно открывает посылку...</t>
+  </si>
+  <si>
+    <t>[CN]Внутри лежит предмет\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t>[CN]Вас охватывает тёплое и приятное чувство...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Есть ещё кое-что.</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Чатота[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Спасибо за [CS:I]Небесный Подарок[CR]! ♪</t>
+  </si>
+  <si>
+    <t>[CN]Я приятно удивился, когда узнал, что\n[CN]от вас пришёл подарок. ♪</t>
+  </si>
+  <si>
+    <t>[CN]Думаю, важно выразить свою\n[CN]признательность. ♪</t>
+  </si>
+  <si>
+    <t>[CN]Вот моя благодарность.\n--[CS:N]Чатот[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Диглетта[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Спасибо вам огромное за [CS:I]Небесный Подарок[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Это очень неожиданный сюрприз.\n[CN]Я так ему рад!</t>
+  </si>
+  <si>
+    <t>[CN]Прошу, примите эту благодарность.\n--[CS:N]Диглетт[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Дагтрио[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Вы и представить себе не можете, как мы\n[CN]рады вашему подарку! Мы даже поведали об\n[CN]этом морю!</t>
+  </si>
+  <si>
+    <t>[CN]Вот кое-что вам в благодарность!\n--[CS:N]Дагтрио[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Санфлоры[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]О боже мой! Спасибо вам огромнейшее\n[CN]за [CS:I]Небесный Подарок[CR]! ♪</t>
+  </si>
+  <si>
+    <t>[CN]Я настолько обрадовалась подарку,\n[CN]что упала без чувств!</t>
+  </si>
+  <si>
+    <t>[CN]Спасибо ещё раз!\n--[CS:N]Санфлора[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Лаудреда[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]ХА-ХА-ХА! БОЛЬЩУЩЕЕ спасибо\n[CN]ЗА [CS:I]Небесный ПОДАРОК[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Я буду ЦЕНИТЬ этот ПОДАРОК!!</t>
+  </si>
+  <si>
+    <t>[CN]Вот моя БЛАГОДАРНОСТЬ!\n[CN]ПРИМИТЕ ЭТО!\n--[CS:N]Лаудред[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Корфиша[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Эй, эй, эй!\n[CN]Спасибо за [CS:I]Небесный Подарок[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Я тронут!\n[CN]Обожаю подарки!</t>
+  </si>
+  <si>
+    <t>[CN]Вот моя благодарность.\n--[CS:N]Корфиш[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Чаймеко[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Спасибо вам за [CS:I]Небесный Подарок[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Я радовалась весь день после того,\n[CN]как получила ваш подарок! ♪</t>
+  </si>
+  <si>
+    <t>[CN]Подарки от чистого сердца\n[CN]это лучшие подарки из всех!</t>
+  </si>
+  <si>
+    <t>[CN]Вот вам моя чистосердечная благодарность.\n--[CS:N]Чаймеко[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Бидуфа[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Да-да! Больщущее спасибо за\n[CN][CS:I]Небесный Подарок[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Я очень рад, что работаю в гильдии\n[CN]вместе с вами,\n[CN][hero] и [partner].</t>
+  </si>
+  <si>
+    <t>[CN]Это немного, но я надеюсь,\n[CN]вам понравится.\n--[CS:N]Бидуф[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Кроганка[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Хе-хе...\n[CN]Хе-хе-хе!</t>
+  </si>
+  <si>
+    <t>[CN]Спасибо за [CS:I]Небесный Подарок[CR].\n[CN]Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t>[CN]Хе-хе-хе...\n[CN]Должен признать, вы молодцы.</t>
+  </si>
+  <si>
+    <t>[CN]Вот вам в благодарность.\n[CN]Хе-хе-хе...\n--[CS:N]Кроганк[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN]адресанта [partner]!</t>
+  </si>
+  <si>
+    <t>[CN]Спасибо огромное за [CS:I]Небесный Подарок[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Я буду его беречь, поскольку он\n[CN]пришёл от тебя, [hero].</t>
+  </si>
+  <si>
+    <t>[CN]Вот тебе в знак благодарности.\n[CN]Будем и дальше трудиться вместе!\n--[partner]</t>
+  </si>
+  <si>
+    <t>[CN]Это подарок от\n[CN][CS:N]Хаппини[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Спасибо за то,\n[CN]что дали тогда мне ту вещь.</t>
+  </si>
+  <si>
+    <t>[CN]Если бы у меня её не было,\n[CN]я могла бы потеряться.</t>
+  </si>
+  <si>
+    <t>[CN]Это немного, но, прошу, примите это\n[CN]в знак благодарности.\n--[CS:N]Хаппини[CR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Вещей много?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, в таком случае, я пока\nпридержу это для тебя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïíàîäå [team:] ðñéšìà\nðïòúìëà!</t>
+  </si>
+  <si>
+    <t>[CN][hero] ðïìôœàåó ðïòúìëô!</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN]Ãéìûäíàòóåñà!</t>
+  </si>
+  <si>
+    <t>[CN]Ë ðïäàñëô ðñéìïçåîï ðéòûíï.</t>
+  </si>
+  <si>
+    <t>[CN]Òðàòéáï èà [CS:I]Îåáåòîúê Ðïäàñïë[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Ÿ ïœåîû åíô ñàä!\n[CN]Ðôòóû üóï é îå Éäåàìûîïå Ÿáìïëï!</t>
+  </si>
+  <si>
+    <t>[CN]Ðïäàñëé üóï èäïñïâï!\n[CN]Ÿ ñàä, œóï íú óàëéå äñôçîúå äñôèûÿ!</t>
+  </si>
+  <si>
+    <t>[CN]Ðñïšô, ðñéíéóå üóï â èîàë áìàãïäàñîïòóé.\n--[CS:N]Âéãìéóàõõ[CR]</t>
+  </si>
+  <si>
+    <t>[CN][hero] îåçîï ïóëñúâàåó ðïòúìëô...</t>
+  </si>
+  <si>
+    <t>[CN]Âîôóñé ìåçéó ðñåäíåó\n[CN][s_item:0]!</t>
+  </si>
+  <si>
+    <t>[CN]Âàò ïöâàóúâàåó óæðìïå é ðñéÿóîïå œôâòóâï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòóû åþæ ëïå-œóï.</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Œàóïóà[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Òðàòéáï èà [CS:I]Îåáåòîúê Ðïäàñïë[CR]! ♪</t>
+  </si>
+  <si>
+    <t>[CN]Ÿ ðñéÿóîï ôäéâéìòÿ, ëïãäà ôèîàì, œóï\n[CN]ïó âàò ðñéšæì ðïäàñïë. ♪</t>
+  </si>
+  <si>
+    <t>[CN]Äôíàý, âàçîï âúñàèéóû òâïý\n[CN]ðñéèîàóåìûîïòóû. ♪</t>
+  </si>
+  <si>
+    <t>[CN]Âïó íïÿ áìàãïäàñîïòóû.\n--[CS:N]Œàóïó[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Äéãìåóóà[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Òðàòéáï âàí ïãñïíîïå èà [CS:I]Îåáåòîúê Ðïäàñïë[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ïœåîû îåïçéäàîîúê òýñðñéè.\n[CN]Ÿ óàë åíô ñàä!</t>
+  </si>
+  <si>
+    <t>[CN]Ðñïšô, ðñéíéóå üóô áìàãïäàñîïòóû.\n--[CS:N]Äéãìåóó[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Äàãóñéï[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Âú é ðñåäòóàâéóû òåáå îå íïçåóå, ëàë íú\n[CN]ñàäú âàšåíô ðïäàñëô! Íú äàçå ðïâåäàìé ïá\n[CN]üóïí íïñý!</t>
+  </si>
+  <si>
+    <t>[CN]Âïó ëïå-œóï âàí â áìàãïäàñîïòóû!\n--[CS:N]Äàãóñéï[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Òàîõìïñú[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Ï áïçå íïê! Òðàòéáï âàí ïãñïíîåêšåå\n[CN]èà [CS:I]Îåáåòîúê Ðïäàñïë[CR]! ♪</t>
+  </si>
+  <si>
+    <t>[CN]Ÿ îàòóïìûëï ïáñàäïâàìàòû ðïäàñëô,\n[CN]œóï ôðàìà áåè œôâòóâ!</t>
+  </si>
+  <si>
+    <t>[CN]Òðàòéáï åþæ ñàè!\n--[CS:N]Òàîõìïñà[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Ìàôäñåäà[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]ÖÀ-ÖÀ-ÖÀ! ÁÏÌÛÞÔÞÅÅ òðàòéáï\n[CN]ÈÀ [CS:I]Îåáåòîúê ÐÏÄÀÑÏË[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Ÿ áôäô ØÅÎÉÓÛ üóïó ÐÏÄÀÑÏË!!</t>
+  </si>
+  <si>
+    <t>[CN]Âïó íïÿ ÁÌÀÃÏÄÀÑÎÏÒÓÛ!\n[CN]ÐÑÉÍÉÓÅ ÜÓÏ!\n--[CS:N]Ìàôäñåä[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Ëïñõéšà[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Üê, üê, üê!\n[CN]Òðàòéáï èà [CS:I]Îåáåòîúê Ðïäàñïë[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Ÿ óñïîôó!\n[CN]Ïáïçàý ðïäàñëé!</t>
+  </si>
+  <si>
+    <t>[CN]Âïó íïÿ áìàãïäàñîïòóû.\n--[CS:N]Ëïñõéš[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Œàêíåëï[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Òðàòéáï âàí èà [CS:I]Îåáåòîúê Ðïäàñïë[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Ÿ ñàäïâàìàòû âåòû äåîû ðïòìå óïãï,\n[CN]ëàë ðïìôœéìà âàš ðïäàñïë! ♪</t>
+  </si>
+  <si>
+    <t>[CN]Ðïäàñëé ïó œéòóïãï òåñäøà\n[CN]üóï ìôœšéå ðïäàñëé éè âòåö!</t>
+  </si>
+  <si>
+    <t>[CN]Âïó âàí íïÿ œéòóïòåñäåœîàÿ áìàãïäàñîïòóû.\n--[CS:N]Œàêíåëï[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Áéäôõà[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Äà-äà! Áïìûþôþåå òðàòéáï èà\n[CN][CS:I]Îåáåòîúê Ðïäàñïë[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Ÿ ïœåîû ñàä, œóï ñàáïóàý â ãéìûäéé\n[CN]âíåòóå ò âàíé,\n[CN][hero] é [partner].</t>
+  </si>
+  <si>
+    <t>[CN]Üóï îåíîïãï, îï ÿ îàäåýòû,\n[CN]âàí ðïîñàâéóòÿ.\n--[CS:N]Áéäôõ[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Ëñïãàîëà[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Öå-öå...\n[CN]Öå-öå-öå!</t>
+  </si>
+  <si>
+    <t>[CN]Òðàòéáï èà [CS:I]Îåáåòîúê Ðïäàñïë[CR].\n[CN]Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t>[CN]Öå-öå-öå...\n[CN]Äïìçåî ðñéèîàóû, âú íïìïäøú.</t>
+  </si>
+  <si>
+    <t>[CN]Âïó âàí â áìàãïäàñîïòóû.\n[CN]Öå-öå-öå...\n--[CS:N]Ëñïãàîë[CR]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN]àäñåòàîóà [partner]!</t>
+  </si>
+  <si>
+    <t>[CN]Òðàòéáï ïãñïíîïå èà [CS:I]Îåáåòîúê Ðïäàñïë[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Ÿ áôäô åãï áåñåœû, ðïòëïìûëô ïî\n[CN]ðñéšæì ïó óåáÿ, [hero].</t>
+  </si>
+  <si>
+    <t>[CN]Âïó óåáå â èîàë áìàãïäàñîïòóé.\n[CN]Áôäåí é äàìûšå óñôäéóûòÿ âíåòóå!\n--[partner]</t>
+  </si>
+  <si>
+    <t>[CN]Üóï ðïäàñïë ïó\n[CN][CS:N]Öàððéîé[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Òðàòéáï èà óï,\n[CN]œóï äàìé óïãäà íîå óô âåþû.</t>
+  </si>
+  <si>
+    <t>[CN]Åòìé áú ô íåîÿ åæ îå áúìï,\n[CN]ÿ íïãìà áú ðïóåñÿóûòÿ.</t>
+  </si>
+  <si>
+    <t>[CN]Üóï îåíîïãï, îï, ðñïšô, ðñéíéóå üóï\n[CN]â èîàë áìàãïäàñîïòóé.\n--[CS:N]Öàððéîé[CR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Âåþåê íîïãï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, â óàëïí òìôœàå, ÿ ðïëà\nðñéäåñçô üóï äìÿ óåáÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [name:0] из Команды [team]![C]
+ [name:0] из Команды [team]![C]
+ Вас ожидает [hero].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [name:0] éè Ëïíàîäú
+[team]![C]
+ [name:0] éè Ëïíàîäú
+[team]![C]
+ Âàò ïçéäàåó [hero].</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2399,6 +2998,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2420,7 +3027,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2539,11 +3146,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2618,6 +3245,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2900,15 +3539,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E287"/>
+  <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C276" sqref="C276"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="33.88671875" style="5" customWidth="1"/>
     <col min="4" max="4" width="36.77734375" style="5" customWidth="1"/>
@@ -3529,20 +4168,20 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="51" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
       <c r="B40" s="9">
         <f t="shared" si="0"/>
         <v>17822</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="29" t="s">
         <v>115</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>116</v>
+        <v>849</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>117</v>
+        <v>850</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3552,13 +4191,13 @@
         <v>17823</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3568,13 +4207,13 @@
         <v>17824</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3584,13 +4223,13 @@
         <v>17825</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3600,13 +4239,13 @@
         <v>17826</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3616,13 +4255,13 @@
         <v>17827</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3632,13 +4271,13 @@
         <v>17828</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3648,13 +4287,13 @@
         <v>17829</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3664,13 +4303,13 @@
         <v>17830</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3680,13 +4319,13 @@
         <v>17831</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3696,13 +4335,13 @@
         <v>17832</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3712,13 +4351,13 @@
         <v>17833</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3728,13 +4367,13 @@
         <v>17834</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3744,13 +4383,13 @@
         <v>17835</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3760,13 +4399,13 @@
         <v>17836</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3776,13 +4415,13 @@
         <v>17837</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3792,13 +4431,13 @@
         <v>17838</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3808,13 +4447,13 @@
         <v>17839</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3824,13 +4463,13 @@
         <v>17840</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3840,13 +4479,13 @@
         <v>17841</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3856,13 +4495,13 @@
         <v>17842</v>
       </c>
       <c r="C60" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -3872,13 +4511,13 @@
         <v>17843</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -3888,13 +4527,13 @@
         <v>17844</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -3904,13 +4543,13 @@
         <v>17845</v>
       </c>
       <c r="C63" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -3920,13 +4559,13 @@
         <v>17846</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E64" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -3936,13 +4575,13 @@
         <v>17847</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -3952,13 +4591,13 @@
         <v>17848</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -3968,13 +4607,13 @@
         <v>17849</v>
       </c>
       <c r="C67" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -3984,13 +4623,13 @@
         <v>17850</v>
       </c>
       <c r="C68" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="51" x14ac:dyDescent="0.3">
@@ -4000,13 +4639,13 @@
         <v>17851</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="E69" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4016,13 +4655,13 @@
         <v>17852</v>
       </c>
       <c r="C70" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -4032,13 +4671,13 @@
         <v>17853</v>
       </c>
       <c r="C71" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4048,13 +4687,13 @@
         <v>17854</v>
       </c>
       <c r="C72" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4064,13 +4703,13 @@
         <v>17855</v>
       </c>
       <c r="C73" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="61.2" x14ac:dyDescent="0.3">
@@ -4080,13 +4719,13 @@
         <v>17856</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -4096,13 +4735,13 @@
         <v>17857</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -4112,13 +4751,13 @@
         <v>17858</v>
       </c>
       <c r="C76" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" s="11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -4128,13 +4767,13 @@
         <v>17859</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -4144,13 +4783,13 @@
         <v>17860</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -4160,13 +4799,13 @@
         <v>17861</v>
       </c>
       <c r="C79" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -4176,13 +4815,13 @@
         <v>17862</v>
       </c>
       <c r="C80" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -4192,13 +4831,13 @@
         <v>17863</v>
       </c>
       <c r="C81" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -4208,13 +4847,13 @@
         <v>17864</v>
       </c>
       <c r="C82" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E82" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -4224,13 +4863,13 @@
         <v>17865</v>
       </c>
       <c r="C83" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -4240,13 +4879,13 @@
         <v>17866</v>
       </c>
       <c r="C84" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E84" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4256,13 +4895,13 @@
         <v>17867</v>
       </c>
       <c r="C85" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -4272,13 +4911,13 @@
         <v>17868</v>
       </c>
       <c r="C86" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -4288,13 +4927,13 @@
         <v>17869</v>
       </c>
       <c r="C87" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E87" s="11" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -4304,13 +4943,13 @@
         <v>17870</v>
       </c>
       <c r="C88" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -4320,13 +4959,13 @@
         <v>17871</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -4336,13 +4975,13 @@
         <v>17872</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -4352,13 +4991,13 @@
         <v>17873</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -4368,13 +5007,13 @@
         <v>17874</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -4384,13 +5023,13 @@
         <v>17875</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4400,13 +5039,13 @@
         <v>17876</v>
       </c>
       <c r="C94" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>268</v>
-      </c>
       <c r="E94" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -4416,13 +5055,13 @@
         <v>17877</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="51" x14ac:dyDescent="0.3">
@@ -4432,13 +5071,13 @@
         <v>17878</v>
       </c>
       <c r="C96" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E96" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -4448,13 +5087,13 @@
         <v>17879</v>
       </c>
       <c r="C97" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E97" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -4464,13 +5103,13 @@
         <v>17880</v>
       </c>
       <c r="C98" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4480,13 +5119,13 @@
         <v>17881</v>
       </c>
       <c r="C99" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -4496,13 +5135,13 @@
         <v>17882</v>
       </c>
       <c r="C100" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="71.400000000000006" x14ac:dyDescent="0.3">
@@ -4512,13 +5151,13 @@
         <v>17883</v>
       </c>
       <c r="C101" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E101" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4528,13 +5167,13 @@
         <v>17884</v>
       </c>
       <c r="C102" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E102" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="E102" s="11" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -4576,13 +5215,13 @@
         <v>17887</v>
       </c>
       <c r="C105" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E105" s="11" t="s">
         <v>293</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E105" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4592,13 +5231,13 @@
         <v>17888</v>
       </c>
       <c r="C106" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E106" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -4608,13 +5247,13 @@
         <v>17889</v>
       </c>
       <c r="C107" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E107" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4624,13 +5263,13 @@
         <v>17890</v>
       </c>
       <c r="C108" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E108" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4640,13 +5279,13 @@
         <v>17891</v>
       </c>
       <c r="C109" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E109" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -4656,13 +5295,13 @@
         <v>17892</v>
       </c>
       <c r="C110" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E110" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -4672,13 +5311,13 @@
         <v>17893</v>
       </c>
       <c r="C111" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E111" s="11" t="s">
         <v>311</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4688,13 +5327,13 @@
         <v>17894</v>
       </c>
       <c r="C112" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E112" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E112" s="11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -4704,13 +5343,13 @@
         <v>17895</v>
       </c>
       <c r="C113" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4720,13 +5359,13 @@
         <v>17896</v>
       </c>
       <c r="C114" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E114" s="11" t="s">
         <v>320</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -4736,13 +5375,13 @@
         <v>17897</v>
       </c>
       <c r="C115" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E115" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -4752,13 +5391,13 @@
         <v>17898</v>
       </c>
       <c r="C116" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E116" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -4768,13 +5407,13 @@
         <v>17899</v>
       </c>
       <c r="C117" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E117" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -4784,30 +5423,30 @@
         <v>17900</v>
       </c>
       <c r="C118" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E118" s="14" t="s">
         <v>332</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B119" s="9">
         <v>17901</v>
       </c>
       <c r="C119" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>336</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -4817,13 +5456,13 @@
         <v>17902</v>
       </c>
       <c r="C120" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E120" s="11" t="s">
         <v>339</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4833,13 +5472,13 @@
         <v>17903</v>
       </c>
       <c r="C121" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E121" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -4849,13 +5488,13 @@
         <v>17904</v>
       </c>
       <c r="C122" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E122" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -4868,10 +5507,10 @@
         <v>58</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -4897,13 +5536,13 @@
         <v>17907</v>
       </c>
       <c r="C125" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E125" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -4913,13 +5552,13 @@
         <v>17908</v>
       </c>
       <c r="C126" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E126" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4929,13 +5568,13 @@
         <v>17909</v>
       </c>
       <c r="C127" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E127" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -4945,13 +5584,13 @@
         <v>17910</v>
       </c>
       <c r="C128" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E128" s="11" t="s">
         <v>356</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -4961,13 +5600,13 @@
         <v>17911</v>
       </c>
       <c r="C129" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E129" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -4977,13 +5616,13 @@
         <v>17912</v>
       </c>
       <c r="C130" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E130" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -4993,13 +5632,13 @@
         <v>17913</v>
       </c>
       <c r="C131" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E131" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="E131" s="11" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -5025,13 +5664,13 @@
         <v>17915</v>
       </c>
       <c r="C133" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E133" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="E133" s="11" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5041,13 +5680,13 @@
         <v>17916</v>
       </c>
       <c r="C134" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E134" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="E134" s="11" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -5057,13 +5696,13 @@
         <v>17917</v>
       </c>
       <c r="C135" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="E135" s="11" t="s">
         <v>371</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -5073,13 +5712,13 @@
         <v>17918</v>
       </c>
       <c r="C136" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E136" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -5089,13 +5728,13 @@
         <v>17919</v>
       </c>
       <c r="C137" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D137" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E137" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="D137" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E137" s="11" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5105,13 +5744,13 @@
         <v>17920</v>
       </c>
       <c r="C138" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E138" s="11" t="s">
         <v>380</v>
-      </c>
-      <c r="D138" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5121,13 +5760,13 @@
         <v>17921</v>
       </c>
       <c r="C139" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D139" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -5137,13 +5776,13 @@
         <v>17922</v>
       </c>
       <c r="C140" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D140" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E140" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E140" s="11" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5153,13 +5792,13 @@
         <v>17923</v>
       </c>
       <c r="C141" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E141" s="11" t="s">
         <v>389</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -5169,13 +5808,13 @@
         <v>17924</v>
       </c>
       <c r="C142" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="E142" s="11" t="s">
         <v>377</v>
-      </c>
-      <c r="D142" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="E142" s="11" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5185,13 +5824,13 @@
         <v>17925</v>
       </c>
       <c r="C143" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E143" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5201,13 +5840,13 @@
         <v>17926</v>
       </c>
       <c r="C144" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="E144" s="11" t="s">
         <v>395</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="E144" s="11" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -5217,13 +5856,13 @@
         <v>17927</v>
       </c>
       <c r="C145" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D145" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E145" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="D145" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="E145" s="11" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -5233,13 +5872,13 @@
         <v>17928</v>
       </c>
       <c r="C146" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>401</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="E146" s="11" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5249,13 +5888,13 @@
         <v>17929</v>
       </c>
       <c r="C147" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E147" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="E147" s="11" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="51" x14ac:dyDescent="0.3">
@@ -5265,13 +5904,13 @@
         <v>17930</v>
       </c>
       <c r="C148" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E148" s="11" t="s">
         <v>407</v>
-      </c>
-      <c r="D148" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="E148" s="11" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -5281,13 +5920,13 @@
         <v>17931</v>
       </c>
       <c r="C149" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E149" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5297,13 +5936,13 @@
         <v>17932</v>
       </c>
       <c r="C150" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E150" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5313,13 +5952,13 @@
         <v>17933</v>
       </c>
       <c r="C151" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E151" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="D151" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5329,13 +5968,13 @@
         <v>17934</v>
       </c>
       <c r="C152" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E152" s="11" t="s">
         <v>419</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5345,13 +5984,13 @@
         <v>17935</v>
       </c>
       <c r="C153" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E153" s="11" t="s">
         <v>422</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E153" s="11" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5361,13 +6000,13 @@
         <v>17936</v>
       </c>
       <c r="C154" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E154" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -5377,13 +6016,13 @@
         <v>17937</v>
       </c>
       <c r="C155" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E155" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5393,13 +6032,13 @@
         <v>17938</v>
       </c>
       <c r="C156" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="E156" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="234.6" x14ac:dyDescent="0.3">
@@ -5409,13 +6048,13 @@
         <v>17939</v>
       </c>
       <c r="C157" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E157" s="11" t="s">
         <v>434</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -5425,13 +6064,13 @@
         <v>17940</v>
       </c>
       <c r="C158" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E158" s="11" t="s">
         <v>437</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="E158" s="11" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -5473,13 +6112,13 @@
         <v>17943</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E161" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5489,13 +6128,13 @@
         <v>17944</v>
       </c>
       <c r="C162" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E162" s="11" t="s">
         <v>441</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -5505,13 +6144,13 @@
         <v>17945</v>
       </c>
       <c r="C163" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E163" s="11" t="s">
         <v>444</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="E163" s="11" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5521,13 +6160,13 @@
         <v>17946</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -5537,13 +6176,13 @@
         <v>17947</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E165" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -5553,13 +6192,13 @@
         <v>17948</v>
       </c>
       <c r="C166" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E166" s="11" t="s">
         <v>449</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -5569,13 +6208,13 @@
         <v>17949</v>
       </c>
       <c r="C167" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E167" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -5585,13 +6224,13 @@
         <v>17950</v>
       </c>
       <c r="C168" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E168" s="11" t="s">
         <v>455</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -5601,13 +6240,13 @@
         <v>17951</v>
       </c>
       <c r="C169" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E169" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="E169" s="11" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -5617,13 +6256,13 @@
         <v>17952</v>
       </c>
       <c r="C170" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E170" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -5633,13 +6272,13 @@
         <v>17953</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -5649,13 +6288,13 @@
         <v>17954</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -5665,13 +6304,13 @@
         <v>17955</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -5681,13 +6320,13 @@
         <v>17956</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -5729,13 +6368,13 @@
         <v>17959</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5745,30 +6384,30 @@
         <v>17960</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D178" s="20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E178" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B179" s="23">
         <v>48</v>
       </c>
       <c r="C179" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="D179" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E179" s="25" t="s">
         <v>475</v>
-      </c>
-      <c r="D179" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="E179" s="25" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -5777,13 +6416,13 @@
         <v>52</v>
       </c>
       <c r="C180" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="E180" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="E180" s="11" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -5792,13 +6431,13 @@
         <v>56</v>
       </c>
       <c r="C181" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="E181" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="D181" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -5810,7 +6449,7 @@
         <v>10</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E182" s="11" t="s">
         <v>47</v>
@@ -5825,7 +6464,7 @@
         <v>10</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>47</v>
@@ -5840,10 +6479,10 @@
         <v>9</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -5855,7 +6494,7 @@
         <v>10</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>47</v>
@@ -5870,7 +6509,7 @@
         <v>10</v>
       </c>
       <c r="D186" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E186" s="21" t="s">
         <v>47</v>
@@ -5878,36 +6517,36 @@
     </row>
     <row r="187" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B187" s="23">
         <v>21</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B188" s="9">
         <v>25</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -5916,13 +6555,13 @@
         <v>30</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -5931,13 +6570,13 @@
         <v>41</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -5946,13 +6585,13 @@
         <v>87</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -5961,13 +6600,13 @@
         <v>94</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -5979,10 +6618,10 @@
         <v>10</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -5991,13 +6630,13 @@
         <v>119</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -6006,13 +6645,13 @@
         <v>131</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -6021,13 +6660,13 @@
         <v>142</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6036,13 +6675,13 @@
         <v>159</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -6066,13 +6705,13 @@
         <v>172</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -6081,13 +6720,13 @@
         <v>186</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6096,13 +6735,13 @@
         <v>194</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -6141,13 +6780,13 @@
         <v>227</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E204" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -6156,13 +6795,13 @@
         <v>238</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E205" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -6171,13 +6810,13 @@
         <v>246</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E206" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -6186,13 +6825,13 @@
         <v>254</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E207" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -6216,13 +6855,13 @@
         <v>264</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E209" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -6231,13 +6870,13 @@
         <v>272</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -6261,13 +6900,13 @@
         <v>287</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -6291,13 +6930,13 @@
         <v>304</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -6321,13 +6960,13 @@
         <v>321</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -6351,13 +6990,13 @@
         <v>336</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -6381,13 +7020,13 @@
         <v>349</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E220" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -6411,13 +7050,13 @@
         <v>364</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E222" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -6441,13 +7080,13 @@
         <v>381</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E224" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -6471,13 +7110,13 @@
         <v>396</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E226" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -6501,13 +7140,13 @@
         <v>409</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E228" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -6531,13 +7170,13 @@
         <v>424</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -6561,13 +7200,13 @@
         <v>462</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E232" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -6591,13 +7230,13 @@
         <v>489</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E234" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -6621,13 +7260,13 @@
         <v>525</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E236" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -6651,13 +7290,13 @@
         <v>599</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E238" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -6681,13 +7320,13 @@
         <v>616</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E240" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -6696,13 +7335,13 @@
         <v>633</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E241" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -6711,13 +7350,13 @@
         <v>636</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E242" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -6726,13 +7365,13 @@
         <v>640</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E243" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -6741,13 +7380,13 @@
         <v>683</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E244" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -6759,10 +7398,10 @@
         <v>10</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E245" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -6771,13 +7410,13 @@
         <v>717</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E246" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6786,13 +7425,13 @@
         <v>732</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E247" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -6801,13 +7440,13 @@
         <v>743</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E248" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -6816,13 +7455,13 @@
         <v>792</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E249" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -6831,13 +7470,13 @@
         <v>854</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E250" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -6846,13 +7485,13 @@
         <v>859</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D251" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E251" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -6864,10 +7503,10 @@
         <v>10</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E252" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -6876,13 +7515,13 @@
         <v>903</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E253" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6891,13 +7530,13 @@
         <v>940</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E254" s="11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -6906,13 +7545,13 @@
         <v>951</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E255" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -6924,10 +7563,10 @@
         <v>10</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E256" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -6936,13 +7575,13 @@
         <v>1193</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E257" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -6951,13 +7590,13 @@
         <v>1731</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E258" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -6966,13 +7605,13 @@
         <v>1742</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E259" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -6981,13 +7620,13 @@
         <v>1868</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E260" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -6996,13 +7635,13 @@
         <v>1872</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E261" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -7011,13 +7650,13 @@
         <v>1883</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E262" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -7026,13 +7665,13 @@
         <v>1889</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E263" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -7041,13 +7680,13 @@
         <v>1893</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E264" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -7056,13 +7695,13 @@
         <v>1904</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E265" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -7071,13 +7710,13 @@
         <v>1927</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E266" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -7089,10 +7728,10 @@
         <v>106</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E267" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7104,10 +7743,10 @@
         <v>107</v>
       </c>
       <c r="D268" s="20" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -7115,13 +7754,13 @@
         <v>602</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -7129,13 +7768,13 @@
         <v>603</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -7143,13 +7782,13 @@
         <v>604</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7158,13 +7797,13 @@
         <v>605</v>
       </c>
       <c r="C272" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D272" s="20" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E272" s="20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -7172,13 +7811,13 @@
         <v>17</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7186,13 +7825,13 @@
         <v>25</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -7200,13 +7839,13 @@
         <v>84</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7214,13 +7853,13 @@
         <v>87</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -7229,13 +7868,13 @@
         <v>95</v>
       </c>
       <c r="C277" s="20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D277" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E277" s="20" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -7243,13 +7882,13 @@
         <v>17</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7257,13 +7896,13 @@
         <v>25</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E279" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7271,13 +7910,13 @@
         <v>84</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E280" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -7285,13 +7924,13 @@
         <v>87</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7299,13 +7938,13 @@
         <v>104</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -7313,13 +7952,13 @@
         <v>115</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7327,13 +7966,13 @@
         <v>129</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7341,13 +7980,13 @@
         <v>145</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -7355,27 +7994,1554 @@
         <v>161</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E286" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A287" s="26"/>
+      <c r="B287" s="26">
+        <v>177</v>
+      </c>
+      <c r="C287" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="D287" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="E287" s="27" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A288" s="4" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B287" s="4">
+      <c r="B288" s="4">
+        <v>28</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A289" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="B289" s="4">
+        <v>31</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="E289" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B290" s="4">
+        <v>41</v>
+      </c>
+      <c r="C290" s="27" t="s">
+        <v>654</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B291" s="4">
+        <v>48</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B292" s="4">
+        <v>51</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B293" s="4">
+        <v>55</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="E293" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B294" s="4">
+        <v>58</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B295" s="4">
+        <v>61</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B296" s="4">
+        <v>64</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B297" s="4">
+        <v>68</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B298" s="4">
+        <v>74</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B299" s="4">
+        <v>77</v>
+      </c>
+      <c r="C299" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B300" s="4">
+        <v>84</v>
+      </c>
+      <c r="C300" s="28" t="s">
+        <v>665</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B301" s="4">
+        <v>96</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B302" s="4">
+        <v>99</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B303" s="4">
+        <v>103</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="E303" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B304" s="4">
+        <v>106</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B305" s="4">
+        <v>109</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="E305" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B306" s="4">
+        <v>112</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B307" s="4">
+        <v>116</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E307" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B308" s="4">
+        <v>122</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B309" s="4">
+        <v>125</v>
+      </c>
+      <c r="C309" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D309" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E309" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B310" s="4">
+        <v>133</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="D310" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B311" s="4">
+        <v>136</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D311" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B312" s="4">
+        <v>140</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D312" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B313" s="4">
+        <v>143</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D313" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B314" s="4">
+        <v>146</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D314" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B315" s="4">
+        <v>150</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D315" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B316" s="4">
+        <v>156</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B317" s="4">
+        <v>159</v>
+      </c>
+      <c r="C317" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B318" s="4">
+        <v>167</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B319" s="4">
+        <v>170</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B320" s="4">
+        <v>174</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B321" s="4">
         <v>177</v>
       </c>
-      <c r="C287" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="D287" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="E287" s="5" t="s">
-        <v>651</v>
+      <c r="C321" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B322" s="4">
+        <v>180</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B323" s="4">
+        <v>184</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B324" s="4">
+        <v>190</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B325" s="4">
+        <v>193</v>
+      </c>
+      <c r="C325" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D325" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B326" s="4">
+        <v>201</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="D326" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B327" s="4">
+        <v>204</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D327" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B328" s="4">
+        <v>208</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D328" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B329" s="4">
+        <v>211</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D329" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B330" s="4">
+        <v>214</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B331" s="4">
+        <v>218</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D331" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E331" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B332" s="4">
+        <v>224</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D332" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B333" s="4">
+        <v>227</v>
+      </c>
+      <c r="C333" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D333" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B334" s="4">
+        <v>235</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="D334" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B335" s="4">
+        <v>238</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B336" s="4">
+        <v>242</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B337" s="4">
+        <v>245</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B338" s="4">
+        <v>248</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B339" s="4">
+        <v>252</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B340" s="4">
+        <v>258</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B341" s="4">
+        <v>261</v>
+      </c>
+      <c r="C341" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B342" s="4">
+        <v>269</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B343" s="4">
+        <v>272</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B344" s="4">
+        <v>276</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B345" s="4">
+        <v>279</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D345" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B346" s="4">
+        <v>282</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D346" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B347" s="4">
+        <v>286</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D347" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E347" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B348" s="4">
+        <v>292</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D348" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B349" s="4">
+        <v>295</v>
+      </c>
+      <c r="C349" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E349" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B350" s="4">
+        <v>303</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="D350" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B351" s="4">
+        <v>306</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D351" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B352" s="4">
+        <v>310</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B353" s="4">
+        <v>313</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="D353" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B354" s="4">
+        <v>316</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B355" s="4">
+        <v>319</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="D355" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B356" s="4">
+        <v>323</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B357" s="4">
+        <v>329</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B358" s="4">
+        <v>332</v>
+      </c>
+      <c r="C358" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B359" s="4">
+        <v>340</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="E359" s="5" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B360" s="4">
+        <v>343</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B361" s="4">
+        <v>347</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B362" s="4">
+        <v>350</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B363" s="4">
+        <v>353</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B364" s="4">
+        <v>357</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B365" s="4">
+        <v>363</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B366" s="4">
+        <v>366</v>
+      </c>
+      <c r="C366" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D366" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B367" s="4">
+        <v>374</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="D367" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B368" s="4">
+        <v>377</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D368" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B369" s="4">
+        <v>381</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="D369" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B370" s="4">
+        <v>384</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B371" s="4">
+        <v>387</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D371" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B372" s="4">
+        <v>390</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B373" s="4">
+        <v>394</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B374" s="4">
+        <v>400</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D374" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B375" s="4">
+        <v>403</v>
+      </c>
+      <c r="C375" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D375" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B376" s="4">
+        <v>411</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="D376" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B377" s="4">
+        <v>414</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D377" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B378" s="4">
+        <v>418</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B379" s="4">
+        <v>421</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D379" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B380" s="4">
+        <v>424</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D380" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B381" s="4">
+        <v>428</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D381" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B382" s="4">
+        <v>434</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D382" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B383" s="4">
+        <v>437</v>
+      </c>
+      <c r="C383" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B384" s="4">
+        <v>445</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="D384" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="385" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B385" s="4">
+        <v>448</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="386" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B386" s="4">
+        <v>452</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="387" spans="2:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="4">
+        <v>455</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="D387" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="388" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B388" s="4">
+        <v>458</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="D388" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="389" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B389" s="4">
+        <v>462</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="390" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B390" s="4">
+        <v>468</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D390" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="391" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B391" s="4">
+        <v>471</v>
+      </c>
+      <c r="C391" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D391" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="392" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B392" s="4">
+        <v>491</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D392" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="393" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B393" s="4">
+        <v>494</v>
+      </c>
+      <c r="C393" s="27" t="s">
+        <v>726</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>848</v>
       </c>
     </row>
   </sheetData>
